--- a/Data/Excel/Model/User/Cookie.xlsx
+++ b/Data/Excel/Model/User/Cookie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A647AE-B288-41D8-B43A-DA0E02FE35B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEC329-DDA4-44D0-9D07-C0F1FDB488A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1170" windowWidth="11730" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="2280" yWindow="3255" windowWidth="11925" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StarExp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccStarExp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Star</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -91,6 +83,14 @@
   </si>
   <si>
     <t>pk, fk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccSoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,12 +1080,12 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Model/User/Cookie.xlsx
+++ b/Data/Excel/Model/User/Cookie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEC329-DDA4-44D0-9D07-C0F1FDB488A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8E5093-D1C4-4146-924E-5CAEB570D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3255" windowWidth="11925" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>AccSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1113,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1117,9 +1121,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Data/Excel/Model/User/Cookie.xlsx
+++ b/Data/Excel/Model/User/Cookie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Model\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8E5093-D1C4-4146-924E-5CAEB570D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066F6619-DE45-462A-BCF8-5F98F60298E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3435" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="22980" windowHeight="11295" xr2:uid="{B14C0FCD-ADAC-43B5-88EF-CD027C78C01B}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>Lv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1029,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCC6768-C9E8-4795-B55A-C1C942DE1B76}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1125,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1129,9 +1133,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
